--- a/src/files/archivo_actualizado_geOperarioGeneral.xlsx
+++ b/src/files/archivo_actualizado_geOperarioGeneral.xlsx
@@ -4,13 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="0"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet sheetId="2" name="Guia entrenamiento Ver. 04 (2)" state="visible" r:id="rId4"/>
-    <sheet sheetId="5" name="Sheet1" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="Hoja1" state="visible" r:id="rId6"/>
-    <sheet sheetId="4" name="Hoja2" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Guia entrenamiento Ver. 04 (2)'!$A1:$I32</definedName>
@@ -20,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="58">
   <si>
     <t xml:space="preserve">GUÍA DE ENTRENAMIENTO </t>
   </si>
@@ -48,7 +45,7 @@
     <t>AGUILAR CAMACHO YURITZY AMEYALIN</t>
   </si>
   <si>
-    <t>2025-12-17</t>
+    <t>2025-12-22</t>
   </si>
   <si>
     <t>Operario General</t>
@@ -84,42 +81,48 @@
     <t>LOAIZA FRANCO DIEGO FERNANDO</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>z1</t>
+  </si>
+  <si>
+    <t>Aspectos Seguridad Ocupacional: Levantamiento y movilización de cargas, Seguridad en la Exposición a Material Particulado, Seguridad en la Manipulación de Sustancias Químicas, Manejo de Equipos y Herramientas, Ruido, Almacenamiento y Bodegaje, Proyección de Partículas, Ergonomía Aplicada al Puesto de Trabajo</t>
+  </si>
+  <si>
+    <t>ARRIETA MOSQUEDA OMAR ALFONSO</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Generalidades de Control de Calidad</t>
+  </si>
+  <si>
+    <t>RAMIREZ LOPEZ RAMON</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Aspectos Seguridad Ocupacional: Levantamiento y movilización de cargas, Seguridad en la Exposición a Material Particulado, Seguridad en la Manipulación de Sustancias Químicas, Manejo de Equipos y Herramientas, Ruido, Almacenamiento y Bodegaje, Proyección de Partículas, Ergonomía Aplicada al Puesto de Trabajo</t>
-  </si>
-  <si>
-    <t>ARRIETA MOSQUEDA OMAR ALFONSO</t>
-  </si>
-  <si>
-    <t>Generalidades de Control de Calidad</t>
-  </si>
-  <si>
-    <t>RAMIREZ LOPEZ RAMON</t>
-  </si>
-  <si>
     <t>Generalidades de Microbiología</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>Generalidades de Buenas Prácticas de Manufactura</t>
   </si>
   <si>
     <t>SALGADO GONZALEZ MARTHA GABRIELA</t>
   </si>
   <si>
+    <t>Defectología</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>Defectología</t>
-  </si>
-  <si>
     <t>Manejo seguro de sustancias químicas (Operación y Manejo de Sustancias Quimicas)</t>
   </si>
   <si>
@@ -132,9 +135,6 @@
     <t>Sistema Integrado de Gestión</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>Manejo de Residuos</t>
   </si>
   <si>
@@ -163,9 +163,6 @@
   </si>
   <si>
     <t>Aprobado</t>
-  </si>
-  <si>
-    <t>z1</t>
   </si>
   <si>
     <t>Manejo de Estibas y patron de arrume</t>
@@ -221,207 +218,6 @@
   <si>
     <t>2 DE 2</t>
   </si>
-  <si>
-    <t>operatio</t>
-  </si>
-  <si>
-    <t>omar</t>
-  </si>
-  <si>
-    <t>montacargas</t>
-  </si>
-  <si>
-    <t>Areas</t>
-  </si>
-  <si>
-    <t>Estatus</t>
-  </si>
-  <si>
-    <t>Personas</t>
-  </si>
-  <si>
-    <t>Motivo</t>
-  </si>
-  <si>
-    <t>Tesoreria</t>
-  </si>
-  <si>
-    <t>ÑO</t>
-  </si>
-  <si>
-    <t>No puede comer mole</t>
-  </si>
-  <si>
-    <t>Innovacion</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>Contabilidad e Impuestos</t>
-  </si>
-  <si>
-    <t>Ingenieria</t>
-  </si>
-  <si>
-    <t>Gestión Humana</t>
-  </si>
-  <si>
-    <t>Proyectos</t>
-  </si>
-  <si>
-    <t>Comercio Exterior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistemas y Sistema de Gestión </t>
-  </si>
-  <si>
-    <t>Logistica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calidad </t>
-  </si>
-  <si>
-    <t>Empaques</t>
-  </si>
-  <si>
-    <t>Kari de vacaciones</t>
-  </si>
-  <si>
-    <t>Comercial</t>
-  </si>
-  <si>
-    <t>Materiales</t>
-  </si>
-  <si>
-    <t>Cantidad</t>
-  </si>
-  <si>
-    <t>Columna1</t>
-  </si>
-  <si>
-    <t>Columna2</t>
-  </si>
-  <si>
-    <t>Columna3</t>
-  </si>
-  <si>
-    <t>Hostapur OS Liquido</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>Glicerina</t>
-  </si>
-  <si>
-    <t>Dietanolamida de coco</t>
-  </si>
-  <si>
-    <t>Amphosol CS-50</t>
-  </si>
-  <si>
-    <t>Fragancias de varios aromas</t>
-  </si>
-  <si>
-    <t>Aceite mineral</t>
-  </si>
-  <si>
-    <t>Tego betain F 50</t>
-  </si>
-  <si>
-    <t>Ninol CAA</t>
-  </si>
-  <si>
-    <t>Polyquaternium 7</t>
-  </si>
-  <si>
-    <t>Dehyquart CC7</t>
-  </si>
-  <si>
-    <t>Fenoxietanol</t>
-  </si>
-  <si>
-    <t>Alcohol etílico 96°</t>
-  </si>
-  <si>
-    <t>Tarimas de madera</t>
-  </si>
-  <si>
-    <t>Kg</t>
-  </si>
-  <si>
-    <t>Cartón</t>
-  </si>
-  <si>
-    <t>Plástico</t>
-  </si>
-  <si>
-    <t>Papel</t>
-  </si>
-  <si>
-    <t>Mobiliario</t>
-  </si>
-  <si>
-    <t>Tarimas de plástico</t>
-  </si>
-  <si>
-    <t>PEG 40 Hidrogenado</t>
-  </si>
-  <si>
-    <t>Sal tetrasódica</t>
-  </si>
-  <si>
-    <t>Cutina GMS</t>
-  </si>
-  <si>
-    <t>Glucamate DOE-120</t>
-  </si>
-  <si>
-    <t>Metabeds microwax</t>
-  </si>
-  <si>
-    <t>Jabón Base Opaca 80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microcare SB </t>
-  </si>
-  <si>
-    <t>Microcare PEHG</t>
-  </si>
-  <si>
-    <t>Microcare ITO (THOR)</t>
-  </si>
-  <si>
-    <t>CARBOPOL ULTREZ 10</t>
-  </si>
-  <si>
-    <t>CARBOPOL AQUA SF1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ácido cítrico </t>
-  </si>
-  <si>
-    <t>ISP Captivates</t>
-  </si>
-  <si>
-    <t>Salicilato de sodio</t>
-  </si>
-  <si>
-    <t>Myritol 318</t>
-  </si>
-  <si>
-    <t>Sal refinada yodada</t>
-  </si>
-  <si>
-    <t>Hidróxido de sodio 50%</t>
-  </si>
-  <si>
-    <t>Benzoato de sodio</t>
-  </si>
-  <si>
-    <t>Vidrio</t>
-  </si>
 </sst>
 </file>
 
@@ -431,7 +227,7 @@
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -459,15 +255,8 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <b/>
-      <color theme="0"/>
-      <family val="2"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -486,12 +275,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="31">
     <border>
@@ -855,7 +638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1063,18 +846,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1882,12 +1653,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1190625" cy="704850"/>
+    <xdr:ext cx="1143000" cy="476250"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="21" name="Picture 21">
@@ -1919,23 +1690,85 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1143000" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1190625" cy="704850"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="Tabla4" displayName="Tabla4" ref="A2:C39" totalsRowShown="1" headerRowCount="0">
-  <autoFilter>
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Columna1"/>
-    <tableColumn id="2" name="Columna2"/>
-    <tableColumn id="3" name="Columna3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2289,7 +2122,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="82" zoomScaleNormal="82">
-      <selection activeCell="E61" sqref="E61"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" defaultColWidth="11.42578125" customHeight="1"/>
@@ -2406,7 +2239,7 @@
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="31">
-        <v>46007.75</v>
+        <v>46012.75</v>
       </c>
       <c r="D6" s="32">
         <v>8</v>
@@ -2423,13 +2256,13 @@
       </c>
       <c r="I6" s="34"/>
     </row>
-    <row r="7" ht="131.25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" ht="78" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="31">
-        <v>46007.75</v>
+        <v>46012.75</v>
       </c>
       <c r="D7" s="32">
         <v>2</v>
@@ -2438,86 +2271,86 @@
         <v>23</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G7" s="33"/>
       <c r="H7" s="21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I7" s="34"/>
     </row>
     <row r="8" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" s="38"/>
       <c r="C8" s="31">
-        <v>46007.75</v>
+        <v>46012.75</v>
       </c>
       <c r="D8" s="33">
         <v>1</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I8" s="34"/>
     </row>
     <row r="9" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B9" s="38"/>
       <c r="C9" s="31">
-        <v>46000.75</v>
+        <v>46006.75</v>
       </c>
       <c r="D9" s="33">
         <v>1</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G9" s="32"/>
       <c r="H9" s="21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I9" s="34"/>
     </row>
     <row r="10" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B10" s="38"/>
       <c r="C10" s="31">
-        <v>46000.75</v>
+        <v>46007.75</v>
       </c>
       <c r="D10" s="33">
         <v>1</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G10" s="32"/>
       <c r="H10" s="21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I10" s="34"/>
     </row>
     <row r="11" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="31">
@@ -2527,24 +2360,24 @@
         <v>1</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G11" s="32"/>
       <c r="H11" s="21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I11" s="34"/>
     </row>
     <row r="12" ht="61.5" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B12" s="38"/>
       <c r="C12" s="31">
-        <v>46001.75</v>
+        <v>46006.75</v>
       </c>
       <c r="D12" s="32">
         <v>2</v>
@@ -2557,17 +2390,17 @@
       </c>
       <c r="G12" s="33"/>
       <c r="H12" s="21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I12" s="34"/>
     </row>
     <row r="13" ht="48.75" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B13" s="36"/>
       <c r="C13" s="31">
-        <v>46007.75</v>
+        <v>46012.75</v>
       </c>
       <c r="D13" s="32">
         <v>1</v>
@@ -2576,67 +2409,67 @@
         <v>23</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G13" s="40"/>
       <c r="H13" s="21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I13" s="34"/>
     </row>
     <row r="14" ht="48.75" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B14" s="36"/>
       <c r="C14" s="31">
-        <v>46000.75</v>
+        <v>46006.75</v>
       </c>
       <c r="D14" s="32">
         <v>1</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G14" s="40"/>
       <c r="H14" s="21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I14" s="34"/>
     </row>
     <row r="15" ht="34.5" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="36"/>
       <c r="C15" s="31">
-        <v>46007.75</v>
+        <v>45993.75</v>
       </c>
       <c r="D15" s="32">
         <v>2</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F15" s="33" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="40"/>
       <c r="H15" s="21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I15" s="34"/>
     </row>
     <row r="16" ht="34.5" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" s="36"/>
       <c r="C16" s="31">
-        <v>46001.75</v>
+        <v>46007.75</v>
       </c>
       <c r="D16" s="41">
         <v>1</v>
@@ -2645,40 +2478,40 @@
         <v>23</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G16" s="40"/>
       <c r="H16" s="21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I16" s="34"/>
     </row>
-    <row r="17" ht="61.5" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" ht="49.5" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" s="36"/>
       <c r="C17" s="31">
-        <v>46001.75</v>
+        <v>45993.75</v>
       </c>
       <c r="D17" s="41">
         <v>1</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G17" s="40"/>
       <c r="H17" s="21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I17" s="34"/>
     </row>
-    <row r="18" ht="61.5" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" ht="48" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" s="36"/>
       <c r="C18" s="31">
@@ -2688,110 +2521,110 @@
         <v>1</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G18" s="40"/>
       <c r="H18" s="21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I18" s="34"/>
     </row>
-    <row r="19" ht="34.5" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" ht="50.25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" s="36"/>
       <c r="C19" s="31">
-        <v>46007.75</v>
+        <v>45994.75</v>
       </c>
       <c r="D19" s="32">
         <v>1</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G19" s="43"/>
       <c r="H19" s="21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I19" s="34"/>
     </row>
-    <row r="20" ht="25.5" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" ht="58.5" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" s="36"/>
       <c r="C20" s="31">
-        <v>46007.75</v>
+        <v>46008.75</v>
       </c>
       <c r="D20" s="32">
         <v>2</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G20" s="43"/>
       <c r="H20" s="21" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I20" s="34"/>
     </row>
-    <row r="21" ht="134.25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" ht="66.75" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
         <v>48</v>
       </c>
       <c r="B21" s="36"/>
       <c r="C21" s="31">
-        <v>46007.75</v>
+        <v>45993.75</v>
       </c>
       <c r="D21" s="32">
         <v>2</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G21" s="43"/>
       <c r="H21" s="21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I21" s="34"/>
     </row>
-    <row r="22" ht="35.25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" ht="53.25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="36"/>
       <c r="C22" s="31">
-        <v>46007.75</v>
+        <v>46008.75</v>
       </c>
       <c r="D22" s="32">
         <v>1</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G22" s="43"/>
       <c r="H22" s="21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I22" s="34"/>
     </row>
-    <row r="23" ht="30.75" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" ht="54.75" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
         <v>50</v>
       </c>
@@ -2803,14 +2636,14 @@
         <v>1</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G23" s="43"/>
       <c r="H23" s="21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I23" s="34"/>
     </row>
@@ -2836,7 +2669,7 @@
       <c r="D25" s="46"/>
       <c r="E25" s="11"/>
       <c r="F25" s="47">
-        <f>+AVERAGE(F6:F24)</f>
+        <v>3.33</v>
       </c>
       <c r="G25" s="48"/>
       <c r="H25" s="48"/>
@@ -3003,710 +2836,4 @@
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" scale="77" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" defaultColWidth="11.42578125" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="76" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="76" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="78">
-        <v>0</v>
-      </c>
-      <c r="D2" s="77" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="78">
-        <v>4</v>
-      </c>
-      <c r="D3" s="78"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="78">
-        <v>4</v>
-      </c>
-      <c r="D4" s="78"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="78">
-        <v>5</v>
-      </c>
-      <c r="D5" s="78"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="78">
-        <v>5</v>
-      </c>
-      <c r="D6" s="78"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="77" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="78">
-        <v>6</v>
-      </c>
-      <c r="D7" s="78"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="77" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="78">
-        <v>3</v>
-      </c>
-      <c r="D8" s="78"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="78">
-        <v>2</v>
-      </c>
-      <c r="D9" s="78"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="77" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="78">
-        <v>3</v>
-      </c>
-      <c r="D10" s="78"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="77" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="78">
-        <v>5</v>
-      </c>
-      <c r="D11" s="78"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="77" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="78">
-        <v>8</v>
-      </c>
-      <c r="D12" s="78"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="77" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="78">
-        <v>2</v>
-      </c>
-      <c r="D13" s="77" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="78">
-        <v>3</v>
-      </c>
-      <c r="D14" s="78"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" defaultColWidth="11.42578125" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="79" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="79"/>
-    </row>
-    <row r="2" hidden="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="81" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="80">
-        <v>1200</v>
-      </c>
-      <c r="C3" s="81" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="80">
-        <v>6500</v>
-      </c>
-      <c r="C4" s="81" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="80">
-        <v>3000</v>
-      </c>
-      <c r="C5" s="81" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="80">
-        <v>816</v>
-      </c>
-      <c r="C6" s="81" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="80">
-        <v>990</v>
-      </c>
-      <c r="C7" s="81" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="80">
-        <v>26</v>
-      </c>
-      <c r="C8" s="81" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" s="80">
-        <v>571</v>
-      </c>
-      <c r="C9" s="81" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="80">
-        <v>20000</v>
-      </c>
-      <c r="C10" s="81" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="80">
-        <v>1020</v>
-      </c>
-      <c r="C11" s="81" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="80">
-        <v>757</v>
-      </c>
-      <c r="C12" s="81" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="75" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="80">
-        <v>6</v>
-      </c>
-      <c r="C13" s="81" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="75" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="80">
-        <v>89</v>
-      </c>
-      <c r="C14" s="81" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="75" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="80">
-        <v>1442</v>
-      </c>
-      <c r="C15" s="81" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="75" t="s">
-        <v>101</v>
-      </c>
-      <c r="B16" s="80">
-        <v>14647</v>
-      </c>
-      <c r="C16" s="81" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="75" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="80">
-        <v>22794</v>
-      </c>
-      <c r="C17" s="81" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="75" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" s="80">
-        <v>2473</v>
-      </c>
-      <c r="C18" s="81" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" s="80">
-        <v>2469</v>
-      </c>
-      <c r="C19" s="81" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="75" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="80">
-        <v>492</v>
-      </c>
-      <c r="C20" s="81" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="80">
-        <v>410</v>
-      </c>
-      <c r="C21" s="81" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="75" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22" s="80">
-        <v>311</v>
-      </c>
-      <c r="C22" s="81" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="75" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" s="80">
-        <v>250</v>
-      </c>
-      <c r="C23" s="81" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="75" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24" s="80">
-        <v>26</v>
-      </c>
-      <c r="C24" s="81" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="75" t="s">
-        <v>110</v>
-      </c>
-      <c r="B25" s="80">
-        <v>370</v>
-      </c>
-      <c r="C25" s="81" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26" s="80">
-        <v>86256000</v>
-      </c>
-      <c r="C26" s="81" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="75" t="s">
-        <v>112</v>
-      </c>
-      <c r="B27" s="80">
-        <v>525</v>
-      </c>
-      <c r="C27" s="81" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="B28" s="80">
-        <v>100</v>
-      </c>
-      <c r="C28" s="81" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="75" t="s">
-        <v>114</v>
-      </c>
-      <c r="B29" s="80">
-        <v>146</v>
-      </c>
-      <c r="C29" s="81" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="75" t="s">
-        <v>115</v>
-      </c>
-      <c r="B30" s="80">
-        <v>40</v>
-      </c>
-      <c r="C30" s="81" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="75" t="s">
-        <v>116</v>
-      </c>
-      <c r="B31" s="80">
-        <v>5225</v>
-      </c>
-      <c r="C31" s="81" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="75" t="s">
-        <v>117</v>
-      </c>
-      <c r="B32" s="80">
-        <v>3180</v>
-      </c>
-      <c r="C32" s="81" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="75" t="s">
-        <v>118</v>
-      </c>
-      <c r="B33" s="80">
-        <v>55</v>
-      </c>
-      <c r="C33" s="81" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="75" t="s">
-        <v>119</v>
-      </c>
-      <c r="B34" s="80">
-        <v>1012</v>
-      </c>
-      <c r="C34" s="81" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="75" t="s">
-        <v>120</v>
-      </c>
-      <c r="B35" s="80">
-        <v>380</v>
-      </c>
-      <c r="C35" s="81" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="B36" s="80">
-        <v>4000</v>
-      </c>
-      <c r="C36" s="81" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="75" t="s">
-        <v>122</v>
-      </c>
-      <c r="B37" s="80">
-        <v>50</v>
-      </c>
-      <c r="C37" s="81" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="B38" s="80">
-        <v>1000</v>
-      </c>
-      <c r="C38" s="81" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="75" t="s">
-        <v>124</v>
-      </c>
-      <c r="B39" s="80">
-        <v>7529200</v>
-      </c>
-      <c r="C39" s="81" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="81"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="81"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="39.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="38"/>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/files/archivo_actualizado_geOperarioGeneral.xlsx
+++ b/src/files/archivo_actualizado_geOperarioGeneral.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t xml:space="preserve">GUÍA DE ENTRENAMIENTO </t>
   </si>
@@ -42,16 +42,16 @@
     <t xml:space="preserve"> ÁREA</t>
   </si>
   <si>
-    <t>AGUILAR CAMACHO YURITZY AMEYALIN</t>
-  </si>
-  <si>
-    <t>2025-12-22</t>
+    <t>ADALBERTO JOSE MOYA NARVAEZ</t>
+  </si>
+  <si>
+    <t>2026-01-27</t>
   </si>
   <si>
     <t>Operario General</t>
   </si>
   <si>
-    <t>Producción</t>
+    <t>PRODUCCION</t>
   </si>
   <si>
     <t>TEMA</t>
@@ -75,103 +75,46 @@
     <t>OBSERVACIONES</t>
   </si>
   <si>
-    <t>Proceso Fabricación del jabón líquido/Solido/Hidroalcoholico Interactivo</t>
-  </si>
-  <si>
-    <t>LOAIZA FRANCO DIEGO FERNANDO</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>z1</t>
-  </si>
-  <si>
-    <t>Aspectos Seguridad Ocupacional: Levantamiento y movilización de cargas, Seguridad en la Exposición a Material Particulado, Seguridad en la Manipulación de Sustancias Químicas, Manejo de Equipos y Herramientas, Ruido, Almacenamiento y Bodegaje, Proyección de Partículas, Ergonomía Aplicada al Puesto de Trabajo</t>
-  </si>
-  <si>
-    <t>ARRIETA MOSQUEDA OMAR ALFONSO</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Generalidades de Control de Calidad</t>
-  </si>
-  <si>
-    <t>RAMIREZ LOPEZ RAMON</t>
+    <t>Limpieza y Sanitización</t>
+  </si>
+  <si>
+    <t>TORRES RODRIGUEZ DANIELA</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>27 =&gt; 1</t>
+  </si>
+  <si>
+    <t>Defectología</t>
+  </si>
+  <si>
+    <t>2026-01-26</t>
+  </si>
+  <si>
+    <t>PEREA MARCOS JOYCELYNN ANGIE</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>26 =&gt; 2</t>
+  </si>
+  <si>
+    <t>Buenas Practicas de Documentación</t>
+  </si>
+  <si>
+    <t>2026-01-25</t>
+  </si>
+  <si>
+    <t>MELENDEZ CRISTOBAL GONZALO</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>Generalidades de Microbiología</t>
-  </si>
-  <si>
-    <t>Generalidades de Buenas Prácticas de Manufactura</t>
-  </si>
-  <si>
-    <t>SALGADO GONZALEZ MARTHA GABRIELA</t>
-  </si>
-  <si>
-    <t>Defectología</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Manejo seguro de sustancias químicas (Operación y Manejo de Sustancias Quimicas)</t>
-  </si>
-  <si>
-    <t>Uso y Manejo de Patrin Hidraulico</t>
-  </si>
-  <si>
-    <t>Reprobado</t>
-  </si>
-  <si>
-    <t>Sistema Integrado de Gestión</t>
-  </si>
-  <si>
-    <t>Manejo de Residuos</t>
-  </si>
-  <si>
-    <t>Manejo de Derrames</t>
-  </si>
-  <si>
-    <t>Limpieza y Sanitización</t>
-  </si>
-  <si>
-    <t>ZUPPA FLAÑO ERNESTO</t>
-  </si>
-  <si>
-    <t>Buenas Practicas de Documentación</t>
-  </si>
-  <si>
-    <t>Manejo y disposición de residuos de Jabon</t>
-  </si>
-  <si>
-    <t>LARIOS FRAGOSO KENIA DENISSE</t>
-  </si>
-  <si>
-    <t>Alistamiento de los materiales y operación de empaque bajo los estandares de calidad</t>
-  </si>
-  <si>
-    <t>ZUPPA FLAÑO ERNESTO / RODRIGUEZ HERNANDEZ ALEXIS</t>
-  </si>
-  <si>
-    <t>Aprobado</t>
-  </si>
-  <si>
-    <t>Manejo de Estibas y patron de arrume</t>
-  </si>
-  <si>
-    <t>Manejo de maquina encintadora y funcionalidad para el sellado de cajas</t>
-  </si>
-  <si>
-    <t>Principios y lineamientos para la correcta codificación e inspección de productos</t>
+    <t>25 =&gt; 3</t>
   </si>
   <si>
     <t>1 DE 2</t>
@@ -1029,591 +972,6 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="952500" cy="285750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="952500" cy="285750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="952500" cy="285750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="952500" cy="285750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="952500" cy="285750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="952500" cy="285750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="952500" cy="285750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="952500" cy="285750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="952500" cy="285750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="952500" cy="285750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="952500" cy="285750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="952500" cy="285750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="952500" cy="285750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="952500" cy="285750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="952500" cy="285750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
@@ -1622,7 +980,7 @@
     <xdr:ext cx="1143000" cy="476250"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 20">
+        <xdr:cNvPr id="5" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
@@ -1661,7 +1019,7 @@
     <xdr:ext cx="1143000" cy="476250"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 21">
+        <xdr:cNvPr id="6" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
@@ -1700,7 +1058,7 @@
     <xdr:ext cx="1143000" cy="476250"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 22">
+        <xdr:cNvPr id="7" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
@@ -1739,7 +1097,7 @@
     <xdr:ext cx="1190625" cy="704850"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 23">
+        <xdr:cNvPr id="8" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
@@ -2238,11 +1596,11 @@
         <v>18</v>
       </c>
       <c r="B6" s="30"/>
-      <c r="C6" s="31">
-        <v>46012.75</v>
+      <c r="C6" s="31" t="s">
+        <v>8</v>
       </c>
       <c r="D6" s="32">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>19</v>
@@ -2261,395 +1619,215 @@
         <v>22</v>
       </c>
       <c r="B7" s="36"/>
-      <c r="C7" s="31">
-        <v>46012.75</v>
+      <c r="C7" s="31" t="s">
+        <v>23</v>
       </c>
       <c r="D7" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7" s="33"/>
       <c r="H7" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7" s="34"/>
     </row>
     <row r="8" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="38"/>
-      <c r="C8" s="31">
-        <v>46012.75</v>
+      <c r="C8" s="31" t="s">
+        <v>28</v>
       </c>
       <c r="D8" s="33">
         <v>1</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="21" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I8" s="34"/>
     </row>
     <row r="9" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
-        <v>29</v>
-      </c>
+      <c r="A9" s="37"/>
       <c r="B9" s="38"/>
-      <c r="C9" s="31">
-        <v>46006.75</v>
-      </c>
-      <c r="D9" s="33">
-        <v>1</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>24</v>
-      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="33"/>
       <c r="G9" s="32"/>
-      <c r="H9" s="21" t="s">
-        <v>25</v>
-      </c>
+      <c r="H9" s="21"/>
       <c r="I9" s="34"/>
     </row>
     <row r="10" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>30</v>
-      </c>
+      <c r="A10" s="37"/>
       <c r="B10" s="38"/>
-      <c r="C10" s="31">
-        <v>46007.75</v>
-      </c>
-      <c r="D10" s="33">
-        <v>1</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>20</v>
-      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="32"/>
-      <c r="H10" s="21" t="s">
-        <v>25</v>
-      </c>
+      <c r="H10" s="21"/>
       <c r="I10" s="34"/>
     </row>
     <row r="11" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
-        <v>32</v>
-      </c>
+      <c r="A11" s="35"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="31">
-        <v>46007.75</v>
-      </c>
-      <c r="D11" s="33">
-        <v>1</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>33</v>
-      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="32"/>
-      <c r="H11" s="21" t="s">
-        <v>25</v>
-      </c>
+      <c r="H11" s="21"/>
       <c r="I11" s="34"/>
     </row>
     <row r="12" ht="61.5" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
-        <v>34</v>
-      </c>
+      <c r="A12" s="37"/>
       <c r="B12" s="38"/>
-      <c r="C12" s="31">
-        <v>46006.75</v>
-      </c>
-      <c r="D12" s="32">
-        <v>2</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>20</v>
-      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="33"/>
       <c r="G12" s="33"/>
-      <c r="H12" s="21" t="s">
-        <v>25</v>
-      </c>
+      <c r="H12" s="21"/>
       <c r="I12" s="34"/>
     </row>
     <row r="13" ht="48.75" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
-        <v>35</v>
-      </c>
+      <c r="A13" s="35"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="31">
-        <v>46012.75</v>
-      </c>
-      <c r="D13" s="32">
-        <v>1</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>36</v>
-      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="33"/>
       <c r="G13" s="40"/>
-      <c r="H13" s="21" t="s">
-        <v>25</v>
-      </c>
+      <c r="H13" s="21"/>
       <c r="I13" s="34"/>
     </row>
     <row r="14" ht="48.75" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
-        <v>37</v>
-      </c>
+      <c r="A14" s="35"/>
       <c r="B14" s="36"/>
-      <c r="C14" s="31">
-        <v>46006.75</v>
-      </c>
-      <c r="D14" s="32">
-        <v>1</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>33</v>
-      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="33"/>
       <c r="G14" s="40"/>
-      <c r="H14" s="21" t="s">
-        <v>25</v>
-      </c>
+      <c r="H14" s="21"/>
       <c r="I14" s="34"/>
     </row>
     <row r="15" ht="34.5" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
-        <v>38</v>
-      </c>
+      <c r="A15" s="35"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="31">
-        <v>45993.75</v>
-      </c>
-      <c r="D15" s="32">
-        <v>2</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>20</v>
-      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="33"/>
       <c r="G15" s="40"/>
-      <c r="H15" s="21" t="s">
-        <v>25</v>
-      </c>
+      <c r="H15" s="21"/>
       <c r="I15" s="34"/>
     </row>
     <row r="16" ht="34.5" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
-        <v>39</v>
-      </c>
+      <c r="A16" s="35"/>
       <c r="B16" s="36"/>
-      <c r="C16" s="31">
-        <v>46007.75</v>
-      </c>
-      <c r="D16" s="41">
-        <v>1</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>20</v>
-      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="33"/>
       <c r="G16" s="40"/>
-      <c r="H16" s="21" t="s">
-        <v>25</v>
-      </c>
+      <c r="H16" s="21"/>
       <c r="I16" s="34"/>
     </row>
     <row r="17" ht="49.5" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
-        <v>40</v>
-      </c>
+      <c r="A17" s="35"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="31">
-        <v>45993.75</v>
-      </c>
-      <c r="D17" s="41">
-        <v>1</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>28</v>
-      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="33"/>
       <c r="G17" s="40"/>
-      <c r="H17" s="21" t="s">
-        <v>25</v>
-      </c>
+      <c r="H17" s="21"/>
       <c r="I17" s="34"/>
     </row>
     <row r="18" ht="48" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
-        <v>42</v>
-      </c>
+      <c r="A18" s="35"/>
       <c r="B18" s="36"/>
-      <c r="C18" s="31">
-        <v>46007.75</v>
-      </c>
-      <c r="D18" s="41">
-        <v>1</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="42" t="s">
-        <v>24</v>
-      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="42"/>
       <c r="G18" s="40"/>
-      <c r="H18" s="21" t="s">
-        <v>25</v>
-      </c>
+      <c r="H18" s="21"/>
       <c r="I18" s="34"/>
     </row>
     <row r="19" ht="50.25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
-        <v>43</v>
-      </c>
+      <c r="A19" s="35"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="31">
-        <v>45994.75</v>
-      </c>
-      <c r="D19" s="32">
-        <v>1</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>36</v>
-      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="33"/>
       <c r="G19" s="43"/>
-      <c r="H19" s="21" t="s">
-        <v>25</v>
-      </c>
+      <c r="H19" s="21"/>
       <c r="I19" s="34"/>
     </row>
     <row r="20" ht="58.5" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
-        <v>45</v>
-      </c>
+      <c r="A20" s="35"/>
       <c r="B20" s="36"/>
-      <c r="C20" s="31">
-        <v>46008.75</v>
-      </c>
-      <c r="D20" s="32">
-        <v>2</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>47</v>
-      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="33"/>
       <c r="G20" s="43"/>
-      <c r="H20" s="21" t="s">
-        <v>25</v>
-      </c>
+      <c r="H20" s="21"/>
       <c r="I20" s="34"/>
     </row>
     <row r="21" ht="66.75" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
-        <v>48</v>
-      </c>
+      <c r="A21" s="35"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="31">
-        <v>45993.75</v>
-      </c>
-      <c r="D21" s="32">
-        <v>2</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>47</v>
-      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="33"/>
       <c r="G21" s="43"/>
-      <c r="H21" s="21" t="s">
-        <v>25</v>
-      </c>
+      <c r="H21" s="21"/>
       <c r="I21" s="34"/>
     </row>
     <row r="22" ht="53.25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
-        <v>49</v>
-      </c>
+      <c r="A22" s="35"/>
       <c r="B22" s="36"/>
-      <c r="C22" s="31">
-        <v>46008.75</v>
-      </c>
-      <c r="D22" s="32">
-        <v>1</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="33" t="s">
-        <v>47</v>
-      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="33"/>
       <c r="G22" s="43"/>
-      <c r="H22" s="21" t="s">
-        <v>25</v>
-      </c>
+      <c r="H22" s="21"/>
       <c r="I22" s="34"/>
     </row>
     <row r="23" ht="54.75" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
-        <v>50</v>
-      </c>
+      <c r="A23" s="35"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="31">
-        <v>46007.75</v>
-      </c>
-      <c r="D23" s="32">
-        <v>1</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>36</v>
-      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="33"/>
       <c r="G23" s="43"/>
-      <c r="H23" s="21" t="s">
-        <v>25</v>
-      </c>
+      <c r="H23" s="21"/>
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
@@ -2662,14 +1840,14 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B25" s="46"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
       <c r="E25" s="11"/>
       <c r="F25" s="47">
-        <v>3.33</v>
+        <v>2</v>
       </c>
       <c r="G25" s="48"/>
       <c r="H25" s="48"/>
@@ -2677,7 +1855,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
@@ -2690,7 +1868,7 @@
     </row>
     <row r="27" ht="24.75" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B27" s="54"/>
       <c r="C27" s="54"/>
@@ -2741,13 +1919,13 @@
       <c r="B31" s="68"/>
       <c r="C31" s="69"/>
       <c r="D31" s="68" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E31" s="68"/>
       <c r="F31" s="68"/>
       <c r="G31" s="69"/>
       <c r="H31" s="70" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="I31" s="71"/>
     </row>
@@ -2757,7 +1935,7 @@
       <c r="C32" s="73"/>
       <c r="D32" s="73"/>
       <c r="E32" s="64" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="F32" s="73"/>
       <c r="G32" s="73"/>

--- a/src/files/archivo_actualizado_geOperarioGeneral.xlsx
+++ b/src/files/archivo_actualizado_geOperarioGeneral.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t xml:space="preserve">GUÍA DE ENTRENAMIENTO </t>
   </si>
@@ -42,13 +42,13 @@
     <t xml:space="preserve"> ÁREA</t>
   </si>
   <si>
-    <t>ADALBERTO JOSE MOYA NARVAEZ</t>
-  </si>
-  <si>
-    <t>2026-01-27</t>
-  </si>
-  <si>
-    <t>Operario General</t>
+    <t>ADANY LUZ REYES RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>2026-01-01</t>
+  </si>
+  <si>
+    <t>Operario de Calidad</t>
   </si>
   <si>
     <t>PRODUCCION</t>
@@ -75,46 +75,40 @@
     <t>OBSERVACIONES</t>
   </si>
   <si>
+    <t>Control de calidad de insumos y materiales</t>
+  </si>
+  <si>
+    <t>PEREA MARCOS JOYCELYNN ANGIE</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Limpieza y Sanitización</t>
   </si>
   <si>
-    <t>TORRES RODRIGUEZ DANIELA</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>27 =&gt; 1</t>
-  </si>
-  <si>
-    <t>Defectología</t>
-  </si>
-  <si>
-    <t>2026-01-26</t>
-  </si>
-  <si>
-    <t>PEREA MARCOS JOYCELYNN ANGIE</t>
+    <t>2026-01-02</t>
+  </si>
+  <si>
+    <t>REYES HERNANDEZ EDITH</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>26 =&gt; 2</t>
-  </si>
-  <si>
-    <t>Buenas Practicas de Documentación</t>
-  </si>
-  <si>
-    <t>2026-01-25</t>
-  </si>
-  <si>
-    <t>MELENDEZ CRISTOBAL GONZALO</t>
+    <t>Uso y Manejo de Patrin Hidraulico</t>
+  </si>
+  <si>
+    <t>2026-01-03</t>
+  </si>
+  <si>
+    <t>TORRES RODRIGUEZ DANIELA / REYES HERNANDEZ EDITH</t>
+  </si>
+  <si>
+    <t>Reprobado</t>
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>25 =&gt; 3</t>
   </si>
   <si>
     <t>1 DE 2</t>
@@ -855,12 +849,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="952500" cy="285750"/>
+    <xdr:ext cx="1190625" cy="704850"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 2">
@@ -876,240 +870,6 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="952500" cy="285750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="952500" cy="285750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1143000" cy="476250"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1143000" cy="476250"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1143000" cy="476250"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1190625" cy="704850"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1600,7 +1360,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>19</v>
@@ -1610,53 +1370,53 @@
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" s="34"/>
     </row>
     <row r="7" ht="78" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="32">
         <v>1</v>
       </c>
       <c r="E7" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>24</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>25</v>
       </c>
       <c r="G7" s="33"/>
       <c r="H7" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I7" s="34"/>
     </row>
     <row r="8" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="38"/>
       <c r="C8" s="31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="33">
         <v>1</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I8" s="34"/>
     </row>
@@ -1827,7 +1587,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
@@ -1840,14 +1600,14 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B25" s="46"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
       <c r="E25" s="11"/>
       <c r="F25" s="47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" s="48"/>
       <c r="H25" s="48"/>
@@ -1855,7 +1615,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
@@ -1868,7 +1628,7 @@
     </row>
     <row r="27" ht="24.75" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" s="54"/>
       <c r="C27" s="54"/>
@@ -1919,13 +1679,13 @@
       <c r="B31" s="68"/>
       <c r="C31" s="69"/>
       <c r="D31" s="68" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E31" s="68"/>
       <c r="F31" s="68"/>
       <c r="G31" s="69"/>
       <c r="H31" s="70" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I31" s="71"/>
     </row>
@@ -1935,7 +1695,7 @@
       <c r="C32" s="73"/>
       <c r="D32" s="73"/>
       <c r="E32" s="64" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F32" s="73"/>
       <c r="G32" s="73"/>

--- a/src/files/archivo_actualizado_geOperarioGeneral.xlsx
+++ b/src/files/archivo_actualizado_geOperarioGeneral.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t xml:space="preserve">GUÍA DE ENTRENAMIENTO </t>
   </si>
@@ -42,13 +42,13 @@
     <t xml:space="preserve"> ÁREA</t>
   </si>
   <si>
-    <t>ADANY LUZ REYES RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>2026-01-01</t>
-  </si>
-  <si>
-    <t>Operario de Calidad</t>
+    <t>ADALBERTO JOSE MOYA NARVAEZ</t>
+  </si>
+  <si>
+    <t>2026-01-27</t>
+  </si>
+  <si>
+    <t>Operario General</t>
   </si>
   <si>
     <t>PRODUCCION</t>
@@ -75,40 +75,37 @@
     <t>OBSERVACIONES</t>
   </si>
   <si>
-    <t>Control de calidad de insumos y materiales</t>
+    <t>Limpieza y Sanitización</t>
+  </si>
+  <si>
+    <t>2026-01-21</t>
+  </si>
+  <si>
+    <t>TORRES RODRIGUEZ DANIELA</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>21 =&gt; 2</t>
+  </si>
+  <si>
+    <t>Defectología</t>
   </si>
   <si>
     <t>PEREA MARCOS JOYCELYNN ANGIE</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Limpieza y Sanitización</t>
-  </si>
-  <si>
-    <t>2026-01-02</t>
-  </si>
-  <si>
-    <t>REYES HERNANDEZ EDITH</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Uso y Manejo de Patrin Hidraulico</t>
-  </si>
-  <si>
-    <t>2026-01-03</t>
-  </si>
-  <si>
-    <t>TORRES RODRIGUEZ DANIELA / REYES HERNANDEZ EDITH</t>
-  </si>
-  <si>
-    <t>Reprobado</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t/>
+  </si>
+  <si>
+    <t>Buenas Practicas de Documentación</t>
+  </si>
+  <si>
+    <t>MELENDEZ CRISTOBAL GONZALO</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>1 DE 2</t>
@@ -1357,53 +1354,53 @@
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="31" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D6" s="32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I6" s="34"/>
     </row>
     <row r="7" ht="78" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="31" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D7" s="32">
         <v>1</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G7" s="33"/>
       <c r="H7" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I7" s="34"/>
     </row>
     <row r="8" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="38"/>
       <c r="C8" s="31" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D8" s="33">
         <v>1</v>
@@ -1416,7 +1413,7 @@
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="21" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I8" s="34"/>
     </row>
@@ -1587,7 +1584,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
@@ -1600,14 +1597,14 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="46"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
       <c r="E25" s="11"/>
       <c r="F25" s="47">
-        <v>1</v>
+        <v>2.67</v>
       </c>
       <c r="G25" s="48"/>
       <c r="H25" s="48"/>
@@ -1615,7 +1612,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
@@ -1628,7 +1625,7 @@
     </row>
     <row r="27" ht="24.75" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="54"/>
       <c r="C27" s="54"/>
@@ -1679,13 +1676,13 @@
       <c r="B31" s="68"/>
       <c r="C31" s="69"/>
       <c r="D31" s="68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E31" s="68"/>
       <c r="F31" s="68"/>
       <c r="G31" s="69"/>
       <c r="H31" s="70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I31" s="71"/>
     </row>
@@ -1695,7 +1692,7 @@
       <c r="C32" s="73"/>
       <c r="D32" s="73"/>
       <c r="E32" s="64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F32" s="73"/>
       <c r="G32" s="73"/>
